--- a/biology/Médecine/Joseph_Dominique_Gauthier/Joseph_Dominique_Gauthier.xlsx
+++ b/biology/Médecine/Joseph_Dominique_Gauthier/Joseph_Dominique_Gauthier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Dominique Gauthier, né le 25 février 1910 et mort le 20 mars 2006 à Saint-Théodore-d'Acton (Québec), est un médecin canadien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Victor Gauthier et d'Odile Picard, il épouse Anne Laurette Leblanc le 29 août 1938. Le couple aura 4 enfants (Dr Louis-Marie Gauthier, Mlle Lise Gauthier, Me Jacques Gauthier et Me Luce-Andrée Gauthier) Il a pratiqué plus de 4 500 accouchements et est un ancien membre de l'ordre de Jacques-Cartier. Il a travaillé à Shippagan, où une foule immense venait le consulter. La ville de Shippagan donna son nom à son boulevard principal. Décédé le 20 mars 2006, à l'âge de 96 ans et après 68 ans d'expérience en médecine, il laisse dans le deuil ses 4 enfants, ses 6 petits-enfants et ses 9 arrière-petits-enfants.
 </t>
@@ -542,7 +556,9 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Université Saint-Joseph de Memramcook
 B.A. en 1933
@@ -575,7 +591,9 @@
           <t>Passion transmise entre génération</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">J. Dominique Gauthier a su transmettre sa passion pour la médecine à son fils, le Dr Louis-Marie Gauthier et à sa petite-fille Dr Anne-Geneviève Gauthier.
 </t>
@@ -606,7 +624,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Récompenses
 La médaille pro Ecclesiae et Pontificae de Rome (1963)
@@ -653,7 +673,9 @@
           <t>Citation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>« Le jour où les gens ne me téléphoneront plus, je prendrai ma retraite... ou encore, lorsque je serai en enfance ! »</t>
         </is>
